--- a/Code/Results/Cases/Case_4_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.71260989684368</v>
+        <v>31.50994705700387</v>
       </c>
       <c r="C2">
-        <v>26.73891300640317</v>
+        <v>23.72899616659292</v>
       </c>
       <c r="D2">
-        <v>9.020808545293249</v>
+        <v>13.44775367556404</v>
       </c>
       <c r="E2">
-        <v>7.703635623845057</v>
+        <v>13.20295435834256</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.105869642231004</v>
+        <v>3.828011745734333</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.414234543061575</v>
+        <v>8.040128651804249</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.64038462128623</v>
+        <v>28.23008169383322</v>
       </c>
       <c r="N2">
-        <v>21.31248240174847</v>
+        <v>25.97965339208091</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.57485462582641</v>
+        <v>31.10992175882788</v>
       </c>
       <c r="C3">
-        <v>24.96890075291733</v>
+        <v>23.3713691785962</v>
       </c>
       <c r="D3">
-        <v>8.787914496333272</v>
+        <v>13.45773784624719</v>
       </c>
       <c r="E3">
-        <v>7.6669110762574</v>
+        <v>13.23421245100188</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.127489922705522</v>
+        <v>3.834600253896437</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.459751746254003</v>
+        <v>8.05518248244495</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.49576602780415</v>
+        <v>28.12196706826564</v>
       </c>
       <c r="N3">
-        <v>20.96604240333386</v>
+        <v>25.88680624976296</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.24699043203992</v>
+        <v>30.87255457891986</v>
       </c>
       <c r="C4">
-        <v>23.86752216614844</v>
+        <v>23.15762935429485</v>
       </c>
       <c r="D4">
-        <v>8.652969703431481</v>
+        <v>13.46669825844024</v>
       </c>
       <c r="E4">
-        <v>7.650350362802108</v>
+        <v>13.25542427850811</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.140809555419633</v>
+        <v>3.838841804529217</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.487950966663434</v>
+        <v>8.06488726921196</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.80132735252593</v>
+        <v>28.06325568213285</v>
       </c>
       <c r="N4">
-        <v>20.76044469410656</v>
+        <v>25.83075370668419</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.70183798484005</v>
+        <v>30.77800207047485</v>
       </c>
       <c r="C5">
-        <v>23.4147930951393</v>
+        <v>23.07210059053642</v>
       </c>
       <c r="D5">
-        <v>8.599886822670662</v>
+        <v>13.47105903070638</v>
       </c>
       <c r="E5">
-        <v>7.645009530283588</v>
+        <v>13.26457545197659</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.146262781425908</v>
+        <v>3.840619870551529</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.499531624568158</v>
+        <v>8.068958737827783</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.52032791414545</v>
+        <v>28.04126696882299</v>
       </c>
       <c r="N5">
-        <v>20.67828293968727</v>
+        <v>25.80815484898025</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.61107069490468</v>
+        <v>30.76243603242011</v>
       </c>
       <c r="C6">
-        <v>23.33937840195379</v>
+        <v>23.05799646119329</v>
       </c>
       <c r="D6">
-        <v>8.591184632655835</v>
+        <v>13.47182590367101</v>
       </c>
       <c r="E6">
-        <v>7.644205062235003</v>
+        <v>13.26612561323419</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.14717019193318</v>
+        <v>3.840918120612536</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.501460666205221</v>
+        <v>8.069641867312139</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.47378717948434</v>
+        <v>28.0377329023449</v>
       </c>
       <c r="N6">
-        <v>20.66473348533207</v>
+        <v>25.8044170736242</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.23965475241004</v>
+        <v>30.87127046707361</v>
       </c>
       <c r="C7">
-        <v>23.86143250527798</v>
+        <v>23.1564693862918</v>
       </c>
       <c r="D7">
-        <v>8.652246223691488</v>
+        <v>13.46675420047902</v>
       </c>
       <c r="E7">
-        <v>7.650272755689884</v>
+        <v>13.2555456416105</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.140882979641893</v>
+        <v>3.838865582964562</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.488106754374339</v>
+        <v>8.064941705196764</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.797529706081</v>
+        <v>28.06295128496118</v>
       </c>
       <c r="N7">
-        <v>20.75933027335991</v>
+        <v>25.83044794341452</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.97848868369375</v>
+        <v>31.37036882083151</v>
       </c>
       <c r="C8">
-        <v>26.13143132090772</v>
+        <v>23.60453576197682</v>
       </c>
       <c r="D8">
-        <v>8.938758345286899</v>
+        <v>13.45060749576424</v>
       </c>
       <c r="E8">
-        <v>7.689667302660188</v>
+        <v>13.21331271267665</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.113324244095887</v>
+        <v>3.830242908673637</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.429893575807508</v>
+        <v>8.045223753370276</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.24387883522107</v>
+        <v>28.19121686452676</v>
       </c>
       <c r="N8">
-        <v>21.19144214474912</v>
+        <v>25.94744292538316</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>38.28231658162855</v>
+        <v>32.40984736272119</v>
       </c>
       <c r="C9">
-        <v>30.48992540352655</v>
+        <v>24.52492453875453</v>
       </c>
       <c r="D9">
-        <v>9.571198948236431</v>
+        <v>13.44149619504481</v>
       </c>
       <c r="E9">
-        <v>7.819620829728723</v>
+        <v>13.14654229058408</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.058858508814271</v>
+        <v>3.814878167681477</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.31631289444687</v>
+        <v>8.010192770757277</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.15921795883013</v>
+        <v>28.50317237674652</v>
       </c>
       <c r="N9">
-        <v>22.10472117555696</v>
+        <v>26.18433560870756</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.42658196140437</v>
+        <v>33.20403933700685</v>
       </c>
       <c r="C10">
-        <v>33.73558733689418</v>
+        <v>25.22024154558519</v>
       </c>
       <c r="D10">
-        <v>10.09157431720258</v>
+        <v>13.44867318670993</v>
       </c>
       <c r="E10">
-        <v>7.956131575678748</v>
+        <v>13.10730734266128</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.017195072023457</v>
+        <v>3.804513836537523</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.230705017394712</v>
+        <v>7.986633693238923</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.38225297232992</v>
+        <v>28.76846135192209</v>
       </c>
       <c r="N10">
-        <v>22.83307683601419</v>
+        <v>26.36276714033055</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44.32127177498945</v>
+        <v>33.5705271544378</v>
       </c>
       <c r="C11">
-        <v>35.25928668532142</v>
+        <v>25.53935925933078</v>
       </c>
       <c r="D11">
-        <v>10.34469821176335</v>
+        <v>13.45497193427825</v>
       </c>
       <c r="E11">
-        <v>8.029843009211616</v>
+        <v>13.09159927312968</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.997444561782449</v>
+        <v>3.799995753165727</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.190508570068031</v>
+        <v>7.976380742379437</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.63663864832289</v>
+        <v>28.89678017146815</v>
       </c>
       <c r="N11">
-        <v>23.18243326432932</v>
+        <v>26.44485268882077</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>45.04313503139899</v>
+        <v>33.70993485333639</v>
       </c>
       <c r="C12">
-        <v>35.84074711508563</v>
+        <v>25.66049458575582</v>
       </c>
       <c r="D12">
-        <v>10.4434365363209</v>
+        <v>13.45779469507072</v>
       </c>
       <c r="E12">
-        <v>8.059734623517327</v>
+        <v>13.08595947049887</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.989799230467242</v>
+        <v>3.798312861612448</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.17501617298741</v>
+        <v>7.97256431277317</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.12964526065761</v>
+        <v>28.94644854473962</v>
       </c>
       <c r="N12">
-        <v>23.31797923455517</v>
+        <v>26.47606397281861</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.88741389826904</v>
+        <v>33.67988496546714</v>
       </c>
       <c r="C13">
-        <v>35.715269007915</v>
+        <v>25.63439468251133</v>
       </c>
       <c r="D13">
-        <v>10.42203261886541</v>
+        <v>13.4571672843799</v>
       </c>
       <c r="E13">
-        <v>8.053202963319578</v>
+        <v>13.0871603700616</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.991454189541423</v>
+        <v>3.798674061161401</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.178366544413628</v>
+        <v>7.973383317306064</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.02331223899993</v>
+        <v>28.93570404218152</v>
       </c>
       <c r="N13">
-        <v>23.28862935354682</v>
+        <v>26.46933647767997</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44.38055082756508</v>
+        <v>33.58198444338056</v>
       </c>
       <c r="C14">
-        <v>35.30701604023634</v>
+        <v>25.5493199098838</v>
       </c>
       <c r="D14">
-        <v>10.3527599260578</v>
+        <v>13.45519538858299</v>
       </c>
       <c r="E14">
-        <v>8.032260442752552</v>
+        <v>13.09112909597197</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.996819263612623</v>
+        <v>3.799856740926497</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.189240052746015</v>
+        <v>7.97606544037478</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.67713268440729</v>
+        <v>28.90084496714841</v>
       </c>
       <c r="N14">
-        <v>23.19351494058057</v>
+        <v>26.44741793576571</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44.0707616087199</v>
+        <v>33.52209556566486</v>
       </c>
       <c r="C15">
-        <v>35.057623919135</v>
+        <v>25.49724394180422</v>
       </c>
       <c r="D15">
-        <v>10.31072311877233</v>
+        <v>13.45404456311209</v>
       </c>
       <c r="E15">
-        <v>8.019701006784841</v>
+        <v>13.09360025385994</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.00008206062515</v>
+        <v>3.800584805713727</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.195861936734769</v>
+        <v>7.97771691346279</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>29.46549543150294</v>
+        <v>28.87963234095636</v>
       </c>
       <c r="N15">
-        <v>23.13570156623202</v>
+        <v>26.43400863323738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42.30318544634591</v>
+        <v>33.18018281030447</v>
       </c>
       <c r="C16">
-        <v>33.63647419530274</v>
+        <v>25.19943342594607</v>
       </c>
       <c r="D16">
-        <v>10.07540308889248</v>
+        <v>13.44832271441548</v>
       </c>
       <c r="E16">
-        <v>7.951572397288705</v>
+        <v>13.1083770310311</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.018465719362378</v>
+        <v>3.804813038437</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.233299597570876</v>
+        <v>7.987313036363225</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.31489726782885</v>
+        <v>28.76022731408327</v>
       </c>
       <c r="N16">
-        <v>22.8106599127557</v>
+        <v>26.35742071500266</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41.22310343150685</v>
+        <v>32.97167676291269</v>
       </c>
       <c r="C17">
-        <v>32.76956511151604</v>
+        <v>25.01737647647222</v>
       </c>
       <c r="D17">
-        <v>9.935563609985236</v>
+        <v>13.44559059501659</v>
       </c>
       <c r="E17">
-        <v>7.912944691164653</v>
+        <v>13.1179907754654</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.029507321679543</v>
+        <v>3.807457106066675</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.255889079666689</v>
+        <v>7.993318404749357</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.72821942678208</v>
+        <v>28.68891773139822</v>
       </c>
       <c r="N17">
-        <v>22.61628002636474</v>
+        <v>26.31066804913311</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40.6025275244524</v>
+        <v>32.85224686920105</v>
       </c>
       <c r="C18">
-        <v>32.27618604809708</v>
+        <v>24.91293364285678</v>
       </c>
       <c r="D18">
-        <v>9.856635345469218</v>
+        <v>13.44430465530729</v>
       </c>
       <c r="E18">
-        <v>7.891797276668662</v>
+        <v>13.12372173834068</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.035786929700514</v>
+        <v>3.808996435131087</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.26877074150354</v>
+        <v>7.99681626241151</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.39355665906194</v>
+        <v>28.64862264224636</v>
       </c>
       <c r="N18">
-        <v>22.50612470957094</v>
+        <v>26.28386366811239</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>40.39244791673425</v>
+        <v>32.81189909497036</v>
       </c>
       <c r="C19">
-        <v>32.11395762688807</v>
+        <v>24.87762118986561</v>
       </c>
       <c r="D19">
-        <v>9.830156632182167</v>
+        <v>13.4439182503291</v>
       </c>
       <c r="E19">
-        <v>7.88481292917692</v>
+        <v>13.12569670999661</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.037902184253058</v>
+        <v>3.809520816672841</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.273115488891086</v>
+        <v>7.998008105854335</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>27.28068024311736</v>
+        <v>28.6351037496594</v>
       </c>
       <c r="N19">
-        <v>22.46909405625657</v>
+        <v>26.27480315668937</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.33799310065108</v>
+        <v>32.99382200832</v>
       </c>
       <c r="C20">
-        <v>32.86172658946084</v>
+        <v>25.03672947146892</v>
       </c>
       <c r="D20">
-        <v>9.950290889554049</v>
+        <v>13.44585187518994</v>
       </c>
       <c r="E20">
-        <v>7.916943959190055</v>
+        <v>13.11694652724761</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.028339619143909</v>
+        <v>3.807173724635935</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.253496471732306</v>
+        <v>7.992674601696543</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.79037419080165</v>
+        <v>28.69643435931162</v>
       </c>
       <c r="N20">
-        <v>22.63679754135722</v>
+        <v>26.31563602783089</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44.52928029612628</v>
+        <v>33.61072415648489</v>
       </c>
       <c r="C21">
-        <v>35.42678324163752</v>
+        <v>25.57430137997394</v>
       </c>
       <c r="D21">
-        <v>10.37302350945553</v>
+        <v>13.45576269779177</v>
       </c>
       <c r="E21">
-        <v>8.038355128530849</v>
+        <v>13.0899550062421</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.995248418712402</v>
+        <v>3.799508601284428</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.18605445804759</v>
+        <v>7.975275845660247</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>29.77872419640837</v>
+        <v>28.91105487848782</v>
       </c>
       <c r="N21">
-        <v>23.22135769214914</v>
+        <v>26.45385252560008</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46.64281022467313</v>
+        <v>34.01750284765338</v>
       </c>
       <c r="C22">
-        <v>37.13120192063249</v>
+        <v>25.92728983171152</v>
       </c>
       <c r="D22">
-        <v>10.66652706367965</v>
+        <v>13.46479086613019</v>
       </c>
       <c r="E22">
-        <v>8.129459210990868</v>
+        <v>13.07411302949154</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.972614598542122</v>
+        <v>3.794662125311367</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.140332720625441</v>
+        <v>7.964289983787919</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.22141795918074</v>
+        <v>29.05758703715642</v>
       </c>
       <c r="N22">
-        <v>23.62284946377398</v>
+        <v>26.54492457800132</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>45.51092643798867</v>
+        <v>33.80010815397463</v>
       </c>
       <c r="C23">
-        <v>36.21783728439698</v>
+        <v>25.73877828326884</v>
       </c>
       <c r="D23">
-        <v>10.50807338228831</v>
+        <v>13.45973859382278</v>
       </c>
       <c r="E23">
-        <v>8.079630313058212</v>
+        <v>13.08240337238366</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.984808704117353</v>
+        <v>3.797233946862341</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.164923932840306</v>
+        <v>7.970118298799719</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.44901324774813</v>
+        <v>28.97881437952554</v>
       </c>
       <c r="N23">
-        <v>23.4065035333321</v>
+        <v>26.49625157493013</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41.28605051797719</v>
+        <v>32.98380875373452</v>
       </c>
       <c r="C24">
-        <v>32.82005806723555</v>
+        <v>25.0279792757566</v>
       </c>
       <c r="D24">
-        <v>9.943628153057208</v>
+        <v>13.44573286346051</v>
       </c>
       <c r="E24">
-        <v>7.915132609856106</v>
+        <v>13.11741799684279</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.028867746731671</v>
+        <v>3.807301781495795</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.254578491438368</v>
+        <v>7.992965523937999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.76226596292985</v>
+        <v>28.6930339044659</v>
       </c>
       <c r="N24">
-        <v>22.62751664736204</v>
+        <v>26.31338977274357</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36.83078442580495</v>
+        <v>32.12280369049881</v>
       </c>
       <c r="C25">
-        <v>29.31654412480056</v>
+        <v>24.27211845259561</v>
       </c>
       <c r="D25">
-        <v>9.391454032559023</v>
+        <v>13.44153310095268</v>
       </c>
       <c r="E25">
-        <v>7.77801277184784</v>
+        <v>13.1628834861608</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.073762085986303</v>
+        <v>3.818871192174816</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.347203045319913</v>
+        <v>8.019284288512274</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.35957497817158</v>
+        <v>28.41237834538926</v>
       </c>
       <c r="N25">
-        <v>21.84908146816298</v>
+        <v>26.11946647791462</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.50994705700387</v>
+        <v>33.71260989684356</v>
       </c>
       <c r="C2">
-        <v>23.72899616659292</v>
+        <v>26.73891300640297</v>
       </c>
       <c r="D2">
-        <v>13.44775367556404</v>
+        <v>9.020808545293491</v>
       </c>
       <c r="E2">
-        <v>13.20295435834256</v>
+        <v>7.70363562384528</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.828011745734333</v>
+        <v>2.105869642231145</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.040128651804249</v>
+        <v>4.414234543061544</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.23008169383322</v>
+        <v>23.64038462128621</v>
       </c>
       <c r="N2">
-        <v>25.97965339208091</v>
+        <v>21.31248240174847</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.10992175882788</v>
+        <v>31.5748546258264</v>
       </c>
       <c r="C3">
-        <v>23.3713691785962</v>
+        <v>24.96890075291734</v>
       </c>
       <c r="D3">
-        <v>13.45773784624719</v>
+        <v>8.787914496333322</v>
       </c>
       <c r="E3">
-        <v>13.23421245100188</v>
+        <v>7.666911076257334</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.834600253896437</v>
+        <v>2.127489922705519</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.05518248244495</v>
+        <v>4.459751746253876</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.12196706826564</v>
+        <v>22.49576602780413</v>
       </c>
       <c r="N3">
-        <v>25.88680624976296</v>
+        <v>20.96604240333383</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.87255457891986</v>
+        <v>30.24699043204001</v>
       </c>
       <c r="C4">
-        <v>23.15762935429485</v>
+        <v>23.86752216614847</v>
       </c>
       <c r="D4">
-        <v>13.46669825844024</v>
+        <v>8.652969703431449</v>
       </c>
       <c r="E4">
-        <v>13.25542427850811</v>
+        <v>7.650350362802152</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.838841804529217</v>
+        <v>2.140809555419899</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.06488726921196</v>
+        <v>4.487950966663336</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.06325568213285</v>
+        <v>21.80132735252602</v>
       </c>
       <c r="N4">
-        <v>25.83075370668419</v>
+        <v>20.7604446941067</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.77800207047485</v>
+        <v>29.70183798483996</v>
       </c>
       <c r="C5">
-        <v>23.07210059053642</v>
+        <v>23.4147930951392</v>
       </c>
       <c r="D5">
-        <v>13.47105903070638</v>
+        <v>8.599886822670697</v>
       </c>
       <c r="E5">
-        <v>13.26457545197659</v>
+        <v>7.645009530283642</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.840619870551529</v>
+        <v>2.14626278142603</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.068958737827783</v>
+        <v>4.499531624568196</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>28.04126696882299</v>
+        <v>21.52032791414543</v>
       </c>
       <c r="N5">
-        <v>25.80815484898025</v>
+        <v>20.67828293968718</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.76243603242011</v>
+        <v>29.61107069490471</v>
       </c>
       <c r="C6">
-        <v>23.05799646119329</v>
+        <v>23.33937840195387</v>
       </c>
       <c r="D6">
-        <v>13.47182590367101</v>
+        <v>8.59118463265566</v>
       </c>
       <c r="E6">
-        <v>13.26612561323419</v>
+        <v>7.644205062234922</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.840918120612536</v>
+        <v>2.14717019193318</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.069641867312139</v>
+        <v>4.501460666205254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>28.0377329023449</v>
+        <v>21.4737871794843</v>
       </c>
       <c r="N6">
-        <v>25.8044170736242</v>
+        <v>20.66473348533208</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.87127046707361</v>
+        <v>30.23965475240999</v>
       </c>
       <c r="C7">
-        <v>23.1564693862918</v>
+        <v>23.86143250527803</v>
       </c>
       <c r="D7">
-        <v>13.46675420047902</v>
+        <v>8.65224622369136</v>
       </c>
       <c r="E7">
-        <v>13.2555456416105</v>
+        <v>7.650272755689811</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.838865582964562</v>
+        <v>2.14088297964189</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.064941705196764</v>
+        <v>4.48810675437438</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.06295128496118</v>
+        <v>21.79752970608097</v>
       </c>
       <c r="N7">
-        <v>25.83044794341452</v>
+        <v>20.75933027335986</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.37036882083151</v>
+        <v>32.97848868369366</v>
       </c>
       <c r="C8">
-        <v>23.60453576197682</v>
+        <v>26.13143132090768</v>
       </c>
       <c r="D8">
-        <v>13.45060749576424</v>
+        <v>8.938758345286947</v>
       </c>
       <c r="E8">
-        <v>13.21331271267665</v>
+        <v>7.689667302660149</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.830242908673637</v>
+        <v>2.11332424409576</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.045223753370276</v>
+        <v>4.429893575807508</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.19121686452676</v>
+        <v>23.24387883522105</v>
       </c>
       <c r="N8">
-        <v>25.94744292538316</v>
+        <v>21.19144214474901</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.40984736272119</v>
+        <v>38.28231658162868</v>
       </c>
       <c r="C9">
-        <v>24.52492453875453</v>
+        <v>30.48992540352655</v>
       </c>
       <c r="D9">
-        <v>13.44149619504481</v>
+        <v>9.571198948236393</v>
       </c>
       <c r="E9">
-        <v>13.14654229058408</v>
+        <v>7.819620829728765</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.814878167681477</v>
+        <v>2.058858508814128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.010192770757277</v>
+        <v>4.31631289444694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>28.50317237674652</v>
+        <v>26.15921795883018</v>
       </c>
       <c r="N9">
-        <v>26.18433560870756</v>
+        <v>22.10472117555696</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.20403933700685</v>
+        <v>42.42658196140462</v>
       </c>
       <c r="C10">
-        <v>25.22024154558519</v>
+        <v>33.73558733689443</v>
       </c>
       <c r="D10">
-        <v>13.44867318670993</v>
+        <v>10.09157431720256</v>
       </c>
       <c r="E10">
-        <v>13.10730734266128</v>
+        <v>7.956131575678707</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.804513836537523</v>
+        <v>2.017195072023702</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.986633693238923</v>
+        <v>4.230705017394651</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.76846135192209</v>
+        <v>28.38225297233</v>
       </c>
       <c r="N10">
-        <v>26.36276714033055</v>
+        <v>22.83307683601419</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.5705271544378</v>
+        <v>44.3212717749897</v>
       </c>
       <c r="C11">
-        <v>25.53935925933078</v>
+        <v>35.25928668532172</v>
       </c>
       <c r="D11">
-        <v>13.45497193427825</v>
+        <v>10.34469821176328</v>
       </c>
       <c r="E11">
-        <v>13.09159927312968</v>
+        <v>8.029843009211586</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.799995753165727</v>
+        <v>1.997444561782426</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.976380742379437</v>
+        <v>4.190508570068035</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.89678017146815</v>
+        <v>29.63663864832309</v>
       </c>
       <c r="N11">
-        <v>26.44485268882077</v>
+        <v>23.18243326432934</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70993485333639</v>
+        <v>45.04313503139828</v>
       </c>
       <c r="C12">
-        <v>25.66049458575582</v>
+        <v>35.84074711508507</v>
       </c>
       <c r="D12">
-        <v>13.45779469507072</v>
+        <v>10.44343653632088</v>
       </c>
       <c r="E12">
-        <v>13.08595947049887</v>
+        <v>8.059734623517304</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.798312861612448</v>
+        <v>1.989799230467113</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.97256431277317</v>
+        <v>4.175016172987464</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.94644854473962</v>
+        <v>30.12964526065715</v>
       </c>
       <c r="N12">
-        <v>26.47606397281861</v>
+        <v>23.31797923455508</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.67988496546714</v>
+        <v>44.88741389826918</v>
       </c>
       <c r="C13">
-        <v>25.63439468251133</v>
+        <v>35.71526900791508</v>
       </c>
       <c r="D13">
-        <v>13.4571672843799</v>
+        <v>10.42203261886539</v>
       </c>
       <c r="E13">
-        <v>13.0871603700616</v>
+        <v>8.053202963319634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.798674061161401</v>
+        <v>1.991454189541151</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.973383317306064</v>
+        <v>4.178366544413728</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.93570404218152</v>
+        <v>30.02331223899999</v>
       </c>
       <c r="N13">
-        <v>26.46933647767997</v>
+        <v>23.28862935354692</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.58198444338056</v>
+        <v>44.38055082756473</v>
       </c>
       <c r="C14">
-        <v>25.5493199098838</v>
+        <v>35.30701604023611</v>
       </c>
       <c r="D14">
-        <v>13.45519538858299</v>
+        <v>10.35275992605774</v>
       </c>
       <c r="E14">
-        <v>13.09112909597197</v>
+        <v>8.03226044275263</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.799856740926497</v>
+        <v>1.996819263612599</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.97606544037478</v>
+        <v>4.189240052746087</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.90084496714841</v>
+        <v>29.67713268440703</v>
       </c>
       <c r="N14">
-        <v>26.44741793576571</v>
+        <v>23.19351494058048</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.52209556566486</v>
+        <v>44.07076160871957</v>
       </c>
       <c r="C15">
-        <v>25.49724394180422</v>
+        <v>35.05762391913487</v>
       </c>
       <c r="D15">
-        <v>13.45404456311209</v>
+        <v>10.31072311877235</v>
       </c>
       <c r="E15">
-        <v>13.09360025385994</v>
+        <v>8.019701006784825</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.800584805713727</v>
+        <v>2.000082060625025</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.97771691346279</v>
+        <v>4.195861936734736</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>28.87963234095636</v>
+        <v>29.46549543150274</v>
       </c>
       <c r="N15">
-        <v>26.43400863323738</v>
+        <v>23.13570156623199</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.18018281030447</v>
+        <v>42.30318544634567</v>
       </c>
       <c r="C16">
-        <v>25.19943342594607</v>
+        <v>33.63647419530253</v>
       </c>
       <c r="D16">
-        <v>13.44832271441548</v>
+        <v>10.0754030888924</v>
       </c>
       <c r="E16">
-        <v>13.1083770310311</v>
+        <v>7.951572397288722</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.804813038437</v>
+        <v>2.01846571936237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.987313036363225</v>
+        <v>4.233299597570845</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.76022731408327</v>
+        <v>28.31489726782878</v>
       </c>
       <c r="N16">
-        <v>26.35742071500266</v>
+        <v>22.81065991275567</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.97167676291269</v>
+        <v>41.22310343150671</v>
       </c>
       <c r="C17">
-        <v>25.01737647647222</v>
+        <v>32.76956511151599</v>
       </c>
       <c r="D17">
-        <v>13.44559059501659</v>
+        <v>9.935563609985207</v>
       </c>
       <c r="E17">
-        <v>13.1179907754654</v>
+        <v>7.912944691164575</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.807457106066675</v>
+        <v>2.029507321679793</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.993318404749357</v>
+        <v>4.255889079666534</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>28.68891773139822</v>
+        <v>27.72821942678203</v>
       </c>
       <c r="N17">
-        <v>26.31066804913311</v>
+        <v>22.61628002636468</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.85224686920105</v>
+        <v>40.6025275244526</v>
       </c>
       <c r="C18">
-        <v>24.91293364285678</v>
+        <v>32.27618604809722</v>
       </c>
       <c r="D18">
-        <v>13.44430465530729</v>
+        <v>9.856635345469284</v>
       </c>
       <c r="E18">
-        <v>13.12372173834068</v>
+        <v>7.891797276668747</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.808996435131087</v>
+        <v>2.035786929700643</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.99681626241151</v>
+        <v>4.268770741503535</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.64862264224636</v>
+        <v>27.39355665906198</v>
       </c>
       <c r="N18">
-        <v>26.28386366811239</v>
+        <v>22.50612470957098</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.81189909497036</v>
+        <v>40.39244791673457</v>
       </c>
       <c r="C19">
-        <v>24.87762118986561</v>
+        <v>32.11395762688826</v>
       </c>
       <c r="D19">
-        <v>13.4439182503291</v>
+        <v>9.830156632182236</v>
       </c>
       <c r="E19">
-        <v>13.12569670999661</v>
+        <v>7.884812929176932</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.809520816672841</v>
+        <v>2.037902184252893</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.998008105854335</v>
+        <v>4.27311548889105</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.6351037496594</v>
+        <v>27.28068024311742</v>
       </c>
       <c r="N19">
-        <v>26.27480315668937</v>
+        <v>22.4690940562565</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.99382200832</v>
+        <v>41.33799310065127</v>
       </c>
       <c r="C20">
-        <v>25.03672947146892</v>
+        <v>32.86172658946096</v>
       </c>
       <c r="D20">
-        <v>13.44585187518994</v>
+        <v>9.950290889554063</v>
       </c>
       <c r="E20">
-        <v>13.11694652724761</v>
+        <v>7.916943959190095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.807173724635935</v>
+        <v>2.028339619143932</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.992674601696543</v>
+        <v>4.253496471732371</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>28.69643435931162</v>
+        <v>27.79037419080171</v>
       </c>
       <c r="N20">
-        <v>26.31563602783089</v>
+        <v>22.63679754135725</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.61072415648489</v>
+        <v>44.52928029612617</v>
       </c>
       <c r="C21">
-        <v>25.57430137997394</v>
+        <v>35.42678324163737</v>
       </c>
       <c r="D21">
-        <v>13.45576269779177</v>
+        <v>10.37302350945541</v>
       </c>
       <c r="E21">
-        <v>13.0899550062421</v>
+        <v>8.038355128530814</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.799508601284428</v>
+        <v>1.995248418712527</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.975275845660247</v>
+        <v>4.186054458047572</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.91105487848782</v>
+        <v>29.77872419640827</v>
       </c>
       <c r="N21">
-        <v>26.45385252560008</v>
+        <v>23.22135769214919</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.01750284765338</v>
+        <v>46.6428102246734</v>
       </c>
       <c r="C22">
-        <v>25.92728983171152</v>
+        <v>37.13120192063269</v>
       </c>
       <c r="D22">
-        <v>13.46479086613019</v>
+        <v>10.66652706367963</v>
       </c>
       <c r="E22">
-        <v>13.07411302949154</v>
+        <v>8.129459210990891</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.794662125311367</v>
+        <v>1.972614598541845</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.964289983787919</v>
+        <v>4.140332720625609</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.05758703715642</v>
+        <v>31.22141795918096</v>
       </c>
       <c r="N22">
-        <v>26.54492457800132</v>
+        <v>23.62284946377406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.80010815397463</v>
+        <v>45.51092643798847</v>
       </c>
       <c r="C23">
-        <v>25.73877828326884</v>
+        <v>36.21783728439695</v>
       </c>
       <c r="D23">
-        <v>13.45973859382278</v>
+        <v>10.50807338228833</v>
       </c>
       <c r="E23">
-        <v>13.08240337238366</v>
+        <v>8.079630313058228</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.797233946862341</v>
+        <v>1.984808704117343</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.970118298799719</v>
+        <v>4.164923932840181</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.97881437952554</v>
+        <v>30.44901324774801</v>
       </c>
       <c r="N23">
-        <v>26.49625157493013</v>
+        <v>23.4065035333321</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.98380875373452</v>
+        <v>41.28605051797731</v>
       </c>
       <c r="C24">
-        <v>25.0279792757566</v>
+        <v>32.82005806723563</v>
       </c>
       <c r="D24">
-        <v>13.44573286346051</v>
+        <v>9.943628153057238</v>
       </c>
       <c r="E24">
-        <v>13.11741799684279</v>
+        <v>7.915132609856079</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.807301781495795</v>
+        <v>2.028867746731318</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.992965523937999</v>
+        <v>4.254578491438423</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>28.6930339044659</v>
+        <v>27.76226596292988</v>
       </c>
       <c r="N24">
-        <v>26.31338977274357</v>
+        <v>22.62751664736201</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.12280369049881</v>
+        <v>36.83078442580488</v>
       </c>
       <c r="C25">
-        <v>24.27211845259561</v>
+        <v>29.31654412480056</v>
       </c>
       <c r="D25">
-        <v>13.44153310095268</v>
+        <v>9.391454032558959</v>
       </c>
       <c r="E25">
-        <v>13.1628834861608</v>
+        <v>7.778012771847781</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.818871192174816</v>
+        <v>2.073762085986311</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.019284288512274</v>
+        <v>4.347203045319882</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>28.41237834538926</v>
+        <v>25.35957497817153</v>
       </c>
       <c r="N25">
-        <v>26.11946647791462</v>
+        <v>21.8490814681629</v>
       </c>
       <c r="O25">
         <v>0</v>
